--- a/data_year/zb/固定资产投资和房地产/房地产开发企业经营情况.xlsx
+++ b/data_year/zb/固定资产投资和房地产/房地产开发企业经营情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,589 +473,337 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4515.7119</v>
+        <v>42996.4803</v>
       </c>
       <c r="C2" t="n">
-        <v>214.5704</v>
+        <v>3464.6621</v>
       </c>
       <c r="D2" t="n">
-        <v>393.9613</v>
+        <v>1149.0398</v>
       </c>
       <c r="E2" t="n">
-        <v>3896.8215</v>
+        <v>40585.3326</v>
       </c>
       <c r="F2" t="n">
-        <v>129.6054</v>
+        <v>519.1917</v>
       </c>
       <c r="G2" t="n">
-        <v>95.3237</v>
+        <v>742.9162</v>
       </c>
       <c r="H2" t="n">
-        <v>73.28360000000001</v>
+        <v>6111.4831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5471.6555</v>
+        <v>44491.27632</v>
       </c>
       <c r="C3" t="n">
-        <v>273.4549</v>
+        <v>3959.67148</v>
       </c>
       <c r="D3" t="n">
-        <v>435.9014</v>
+        <v>1224.43008</v>
       </c>
       <c r="E3" t="n">
-        <v>4729.4194</v>
+        <v>41697.90713</v>
       </c>
       <c r="F3" t="n">
-        <v>188.9894</v>
+        <v>664.66275</v>
       </c>
       <c r="G3" t="n">
-        <v>117.3453</v>
+        <v>904.27636</v>
       </c>
       <c r="H3" t="n">
-        <v>125.4738</v>
+        <v>5798.57568</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7077.8478</v>
+        <v>51028.41038</v>
       </c>
       <c r="C4" t="n">
-        <v>370.1458</v>
+        <v>4731.04385</v>
       </c>
       <c r="D4" t="n">
-        <v>562.3449000000001</v>
+        <v>1593.98475</v>
       </c>
       <c r="E4" t="n">
-        <v>6145.799</v>
+        <v>47463.48767</v>
       </c>
       <c r="F4" t="n">
-        <v>225.1311</v>
+        <v>819.38957</v>
       </c>
       <c r="G4" t="n">
-        <v>144.5728</v>
+        <v>1151.54839</v>
       </c>
       <c r="H4" t="n">
-        <v>252.9148</v>
+        <v>6001.32651</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9137.2734</v>
+        <v>70706.66512000001</v>
       </c>
       <c r="C5" t="n">
-        <v>493.7227</v>
+        <v>6322.7561</v>
       </c>
       <c r="D5" t="n">
-        <v>539.5318</v>
+        <v>1973.24922</v>
       </c>
       <c r="E5" t="n">
-        <v>8153.6881</v>
+        <v>66697.98871000001</v>
       </c>
       <c r="F5" t="n">
-        <v>279.72</v>
+        <v>671.42085</v>
       </c>
       <c r="G5" t="n">
-        <v>164.3335</v>
+        <v>1364.00634</v>
       </c>
       <c r="H5" t="n">
-        <v>430.3655</v>
+        <v>9562.671850000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13314.4608</v>
+        <v>66463.80279</v>
       </c>
       <c r="C6" t="n">
-        <v>413.0409</v>
+        <v>6238.99674</v>
       </c>
       <c r="D6" t="n">
-        <v>846.5884</v>
+        <v>1892.68687</v>
       </c>
       <c r="E6" t="n">
-        <v>11752.2041</v>
+        <v>62535.06186</v>
       </c>
       <c r="F6" t="n">
-        <v>410.0917</v>
+        <v>571.95485</v>
       </c>
       <c r="G6" t="n">
-        <v>305.5765</v>
+        <v>1464.09921</v>
       </c>
       <c r="H6" t="n">
-        <v>857.9651</v>
+        <v>6143.1343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14769.3468</v>
+        <v>70174.34165</v>
       </c>
       <c r="C7" t="n">
-        <v>845.2536</v>
+        <v>6412.79621</v>
       </c>
       <c r="D7" t="n">
-        <v>820.8596</v>
+        <v>2112.07577</v>
       </c>
       <c r="E7" t="n">
-        <v>13316.7682</v>
+        <v>65861.30303</v>
       </c>
       <c r="F7" t="n">
-        <v>341.4314</v>
+        <v>600.54252</v>
       </c>
       <c r="G7" t="n">
-        <v>290.2876</v>
+        <v>1600.42033</v>
       </c>
       <c r="H7" t="n">
-        <v>1109.1896</v>
+        <v>6165.53628</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18046.7598</v>
+        <v>90091.50637</v>
       </c>
       <c r="C8" t="n">
-        <v>1127.1214</v>
+        <v>6875.66785</v>
       </c>
       <c r="D8" t="n">
-        <v>807.9621</v>
+        <v>2474.89171</v>
       </c>
       <c r="E8" t="n">
-        <v>16621.3595</v>
+        <v>85163.32261</v>
       </c>
       <c r="F8" t="n">
-        <v>300.648</v>
+        <v>666.32482</v>
       </c>
       <c r="G8" t="n">
-        <v>316.7902</v>
+        <v>1786.96723</v>
       </c>
       <c r="H8" t="n">
-        <v>1669.8882</v>
+        <v>8673.2287</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23397.1284</v>
+        <v>95896.90064000001</v>
       </c>
       <c r="C9" t="n">
-        <v>1660.2966</v>
+        <v>6307.35845</v>
       </c>
       <c r="D9" t="n">
-        <v>978.1939</v>
+        <v>2881.01302</v>
       </c>
       <c r="E9" t="n">
-        <v>21604.2073</v>
+        <v>90609.14726</v>
       </c>
       <c r="F9" t="n">
-        <v>427.9204</v>
+        <v>838.41784</v>
       </c>
       <c r="G9" t="n">
-        <v>386.8068</v>
+        <v>1568.32252</v>
       </c>
       <c r="H9" t="n">
-        <v>2436.6117</v>
+        <v>11728.11158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26696.8448</v>
+        <v>112924.68434</v>
       </c>
       <c r="C10" t="n">
-        <v>1829.1968</v>
+        <v>7299.71894</v>
       </c>
       <c r="D10" t="n">
-        <v>1314.4011</v>
+        <v>3544.62065</v>
       </c>
       <c r="E10" t="n">
-        <v>24394.1196</v>
+        <v>106688.37714</v>
       </c>
       <c r="F10" t="n">
-        <v>466.848</v>
+        <v>1207.38343</v>
       </c>
       <c r="G10" t="n">
-        <v>521.4733</v>
+        <v>1484.30312</v>
       </c>
       <c r="H10" t="n">
-        <v>3432.2297</v>
+        <v>18543.70907</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34606.2342</v>
+        <v>110239.78445</v>
       </c>
       <c r="C11" t="n">
-        <v>2585.4899</v>
+        <v>7420.5692</v>
       </c>
       <c r="D11" t="n">
-        <v>1056.0807</v>
+        <v>3699.94341</v>
       </c>
       <c r="E11" t="n">
-        <v>32507.8328</v>
+        <v>104126.41556</v>
       </c>
       <c r="F11" t="n">
-        <v>498.0475</v>
+        <v>874.1352900000001</v>
       </c>
       <c r="G11" t="n">
-        <v>544.2732</v>
+        <v>1539.29019</v>
       </c>
       <c r="H11" t="n">
-        <v>4728.5843</v>
+        <v>15439.34738</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42996.4803</v>
+        <v>118582.08445</v>
       </c>
       <c r="C12" t="n">
-        <v>3464.6621</v>
+        <v>6925.34382</v>
       </c>
       <c r="D12" t="n">
-        <v>1149.0398</v>
+        <v>4061.83088</v>
       </c>
       <c r="E12" t="n">
-        <v>40585.3326</v>
+        <v>112267.53629</v>
       </c>
       <c r="F12" t="n">
-        <v>519.1917</v>
+        <v>747.8361200000001</v>
       </c>
       <c r="G12" t="n">
-        <v>742.9162</v>
+        <v>1504.88116</v>
       </c>
       <c r="H12" t="n">
-        <v>6111.4831</v>
+        <v>14022.98699</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44491.27632</v>
+        <v>134342.23672</v>
       </c>
       <c r="C13" t="n">
-        <v>3959.67148</v>
+        <v>6723.74155</v>
       </c>
       <c r="D13" t="n">
-        <v>1224.43008</v>
+        <v>4476.25931000002</v>
       </c>
       <c r="E13" t="n">
-        <v>41697.90713</v>
+        <v>127444.88749</v>
       </c>
       <c r="F13" t="n">
-        <v>664.66275</v>
+        <v>769.28603</v>
       </c>
       <c r="G13" t="n">
-        <v>904.27636</v>
+        <v>1651.80389</v>
       </c>
       <c r="H13" t="n">
-        <v>5798.57568</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>51028.41038</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4731.04385</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1593.98475</v>
-      </c>
-      <c r="E14" t="n">
-        <v>47463.48767</v>
-      </c>
-      <c r="F14" t="n">
-        <v>819.38957</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1151.54839</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6001.32651</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>70706.66512000001</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6322.7561</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1973.24922</v>
-      </c>
-      <c r="E15" t="n">
-        <v>66697.98871000001</v>
-      </c>
-      <c r="F15" t="n">
-        <v>671.42085</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1364.00634</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9562.671850000001</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>66463.80279</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6238.99674</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1892.68687</v>
-      </c>
-      <c r="E16" t="n">
-        <v>62535.06186</v>
-      </c>
-      <c r="F16" t="n">
-        <v>571.95485</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1464.09921</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6143.1343</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>70174.34165</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6412.79621</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2112.07577</v>
-      </c>
-      <c r="E17" t="n">
-        <v>65861.30303</v>
-      </c>
-      <c r="F17" t="n">
-        <v>600.54252</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1600.42033</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6165.53628</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>90091.50637</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6875.66785</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2474.89171</v>
-      </c>
-      <c r="E18" t="n">
-        <v>85163.32261</v>
-      </c>
-      <c r="F18" t="n">
-        <v>666.32482</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1786.96723</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8673.2287</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>95896.90064000001</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6307.35845</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2881.01302</v>
-      </c>
-      <c r="E19" t="n">
-        <v>90609.14726</v>
-      </c>
-      <c r="F19" t="n">
-        <v>838.41784</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1568.32252</v>
-      </c>
-      <c r="H19" t="n">
-        <v>11728.11158</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>112924.68434</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7299.71894</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3544.62065</v>
-      </c>
-      <c r="E20" t="n">
-        <v>106688.37714</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1207.38343</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1484.30312</v>
-      </c>
-      <c r="H20" t="n">
-        <v>18543.70907</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>110239.78445</v>
-      </c>
-      <c r="C21" t="n">
-        <v>7420.5692</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3699.94341</v>
-      </c>
-      <c r="E21" t="n">
-        <v>104126.41556</v>
-      </c>
-      <c r="F21" t="n">
-        <v>874.1352900000001</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1539.29019</v>
-      </c>
-      <c r="H21" t="n">
-        <v>15439.34738</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>118582.08445</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6925.34382</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4061.83088</v>
-      </c>
-      <c r="E22" t="n">
-        <v>112267.53629</v>
-      </c>
-      <c r="F22" t="n">
-        <v>747.8361200000001</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1504.88116</v>
-      </c>
-      <c r="H22" t="n">
-        <v>14022.98699</v>
+        <v>11834.02364</v>
       </c>
     </row>
   </sheetData>
